--- a/docs/excel/TCarStarAttr.xlsx
+++ b/docs/excel/TCarStarAttr.xlsx
@@ -1,215 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarStarAttr" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>RewardInit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Init</t>
+    </r>
+  </si>
+  <si>
+    <t>ItemLimitInit</t>
+  </si>
+  <si>
+    <t>MoneyLimitInit</t>
+  </si>
+  <si>
+    <t>SpeedInit</t>
+  </si>
+  <si>
+    <t>StopTimeInit</t>
+  </si>
+  <si>
+    <t>RewardAddition</t>
+  </si>
+  <si>
+    <t>RangeAddition</t>
+  </si>
+  <si>
+    <t>ItemLimitAddition</t>
+  </si>
+  <si>
+    <t>MoneyLimitAddition</t>
+  </si>
+  <si>
+    <t>SpeedAddition</t>
+  </si>
+  <si>
+    <t>StopTimeAddition</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
-    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>u</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>int32</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardInit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Init</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemLimitInit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoneyLimitInit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedInit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StopTimeInit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemLimitAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoneyLimitAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StopTimeAddition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>每分钟收益初始值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>移动范围初始值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物品上限初始值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>货币上限初始值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>速度初始值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停靠时间初始值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每分钟收益增加值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>移动范围增加值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物品上限增加值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>货币上限增加值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>速度增加值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停靠时间增加值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "TCarStarAttr" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -218,7 +204,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -226,18 +212,163 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +381,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -259,9 +576,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -272,29 +831,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -303,12 +859,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -634,289 +1240,590 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.8984375" customWidth="1"/>
-    <col min="10" max="10" width="14.8984375" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.2" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.9" customWidth="1"/>
+    <col min="6" max="6" width="9.3" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="14.6" customWidth="1"/>
+    <col min="9" max="9" width="12.9" customWidth="1"/>
+    <col min="10" max="10" width="14.9" customWidth="1"/>
+    <col min="11" max="11" width="13.9" customWidth="1"/>
+    <col min="12" max="12" width="9.3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="4"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>45</v>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>5</v>
+      </c>
+      <c r="K5" s="11">
+        <v>500</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="12"/>
-      <c r="D6"/>
-      <c r="F6" s="5"/>
-      <c r="I6" s="12"/>
-      <c r="L6" s="5"/>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>600</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="12"/>
-      <c r="D7"/>
-      <c r="F7" s="5"/>
-      <c r="I7" s="12"/>
-      <c r="L7" s="5"/>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>7</v>
+      </c>
+      <c r="K7" s="11">
+        <v>700</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="12"/>
-      <c r="D8"/>
-      <c r="F8" s="5"/>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>800</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="12"/>
-      <c r="D9"/>
-      <c r="F9" s="5"/>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>1005</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>9</v>
+      </c>
+      <c r="K9" s="11">
+        <v>900</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M9" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="12"/>
-      <c r="D10"/>
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>1006</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10" s="11">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>3500</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10" s="11">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="8">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="12"/>
-      <c r="D11"/>
-      <c r="F11" s="5"/>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>1007</v>
+      </c>
+      <c r="B11">
+        <v>350</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11">
+        <v>40</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="12">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>11</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1100</v>
+      </c>
+      <c r="L11" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="12"/>
-      <c r="D12"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1008</v>
+      </c>
+      <c r="B12">
+        <v>400</v>
+      </c>
+      <c r="C12" s="11">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>45</v>
+      </c>
+      <c r="I12" s="11">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>1200</v>
+      </c>
+      <c r="L12" s="8">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="12"/>
-      <c r="D13"/>
-      <c r="F13" s="5"/>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>1009</v>
+      </c>
+      <c r="B13">
+        <v>450</v>
+      </c>
+      <c r="C13" s="11">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11">
+        <v>50</v>
+      </c>
+      <c r="E13" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="12">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>13</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1300</v>
+      </c>
+      <c r="L13" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M13" s="12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="12"/>
-      <c r="D14"/>
-      <c r="F14" s="5"/>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>1010</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="C14" s="11">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>5500</v>
+      </c>
+      <c r="F14" s="12">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>55</v>
+      </c>
+      <c r="I14" s="11">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>1400</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="F15" s="5"/>
+    <row r="15" spans="6:6">
+      <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="F16" s="5"/>
+    <row r="16" spans="6:6">
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -925,78 +1832,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCarStarAttr.xlsx
+++ b/docs/excel/TCarStarAttr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Id</t>
   </si>
@@ -74,6 +74,9 @@
     <t>uint32</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -195,7 +198,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -203,18 +206,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -228,6 +229,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,12 +257,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -254,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +296,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +315,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -292,81 +348,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -383,12 +376,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,31 +412,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,109 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +567,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,17 +624,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,24 +659,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -650,216 +667,186 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1236,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1308,9 +1295,9 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -1319,90 +1306,90 @@
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1412,37 +1399,37 @@
       <c r="B5">
         <v>50</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1000</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0.5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>5</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>0.5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>500</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>0.5</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1453,7 +1440,7 @@
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>4</v>
       </c>
       <c r="D6">
@@ -1462,7 +1449,7 @@
       <c r="E6">
         <v>1500</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6">
@@ -1471,7 +1458,7 @@
       <c r="H6">
         <v>15</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
       <c r="J6">
@@ -1480,7 +1467,7 @@
       <c r="K6">
         <v>600</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6">
@@ -1494,37 +1481,37 @@
       <c r="B7">
         <v>150</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>20</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2000</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>7</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.5</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>7</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>700</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.5</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1535,7 +1522,7 @@
       <c r="B8">
         <v>200</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>6</v>
       </c>
       <c r="D8">
@@ -1544,7 +1531,7 @@
       <c r="E8">
         <v>2500</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>2</v>
       </c>
       <c r="G8">
@@ -1553,7 +1540,7 @@
       <c r="H8">
         <v>25</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
       <c r="J8">
@@ -1562,7 +1549,7 @@
       <c r="K8">
         <v>800</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>2</v>
       </c>
       <c r="M8">
@@ -1576,37 +1563,37 @@
       <c r="B9">
         <v>250</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>30</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>3000</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>2.5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>9</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>2.5</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>9</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>900</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>2.5</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1617,7 +1604,7 @@
       <c r="B10">
         <v>300</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>8</v>
       </c>
       <c r="D10">
@@ -1626,7 +1613,7 @@
       <c r="E10">
         <v>3500</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>3</v>
       </c>
       <c r="G10">
@@ -1635,7 +1622,7 @@
       <c r="H10">
         <v>35</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>3</v>
       </c>
       <c r="J10">
@@ -1644,7 +1631,7 @@
       <c r="K10">
         <v>1000</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>3</v>
       </c>
       <c r="M10">
@@ -1658,37 +1645,37 @@
       <c r="B11">
         <v>350</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>40</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>4000</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>3.5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>11</v>
       </c>
       <c r="H11">
         <v>40</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>3.5</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>11</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>1100</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>3.5</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1699,7 +1686,7 @@
       <c r="B12">
         <v>400</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>10</v>
       </c>
       <c r="D12">
@@ -1708,7 +1695,7 @@
       <c r="E12">
         <v>4500</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>4</v>
       </c>
       <c r="G12">
@@ -1717,7 +1704,7 @@
       <c r="H12">
         <v>45</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>4</v>
       </c>
       <c r="J12">
@@ -1726,7 +1713,7 @@
       <c r="K12">
         <v>1200</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>4</v>
       </c>
       <c r="M12">
@@ -1740,37 +1727,37 @@
       <c r="B13">
         <v>450</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>50</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>5000</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>4.5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>13</v>
       </c>
       <c r="H13">
         <v>50</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>4.5</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>13</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>1300</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>4.5</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1781,7 +1768,7 @@
       <c r="B14">
         <v>500</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>12</v>
       </c>
       <c r="D14">
@@ -1790,7 +1777,7 @@
       <c r="E14">
         <v>5500</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>5</v>
       </c>
       <c r="G14">
@@ -1799,7 +1786,7 @@
       <c r="H14">
         <v>55</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>5</v>
       </c>
       <c r="J14">
@@ -1808,7 +1795,7 @@
       <c r="K14">
         <v>1400</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>5</v>
       </c>
       <c r="M14">
@@ -1816,10 +1803,10 @@
       </c>
     </row>
     <row r="15" spans="6:6">
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1849,59 +1836,59 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCarStarAttr.xlsx
+++ b/docs/excel/TCarStarAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarStarAttr" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Id</t>
   </si>
@@ -74,6 +74,9 @@
     <t>uint32</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -195,7 +198,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -203,16 +206,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -228,6 +221,89 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,75 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,13 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -359,14 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -389,169 +382,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +585,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -603,21 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,88 +672,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -769,97 +762,91 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1236,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1308,9 +1295,9 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -1323,16 +1310,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -1341,68 +1328,68 @@
         <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1412,37 +1399,37 @@
       <c r="B5">
         <v>50</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1000</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0.5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>5</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>0.5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>500</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>0.5</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1453,7 +1440,7 @@
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>4</v>
       </c>
       <c r="D6">
@@ -1462,7 +1449,7 @@
       <c r="E6">
         <v>1500</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6">
@@ -1471,7 +1458,7 @@
       <c r="H6">
         <v>15</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
       <c r="J6">
@@ -1480,7 +1467,7 @@
       <c r="K6">
         <v>600</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6">
@@ -1494,37 +1481,37 @@
       <c r="B7">
         <v>150</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>20</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2000</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>7</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.5</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>7</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>700</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.5</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1535,7 +1522,7 @@
       <c r="B8">
         <v>200</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>6</v>
       </c>
       <c r="D8">
@@ -1544,7 +1531,7 @@
       <c r="E8">
         <v>2500</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>2</v>
       </c>
       <c r="G8">
@@ -1553,7 +1540,7 @@
       <c r="H8">
         <v>25</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
       <c r="J8">
@@ -1562,7 +1549,7 @@
       <c r="K8">
         <v>800</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>2</v>
       </c>
       <c r="M8">
@@ -1576,37 +1563,37 @@
       <c r="B9">
         <v>250</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>30</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>3000</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>2.5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>9</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>2.5</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>9</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>900</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>2.5</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1617,7 +1604,7 @@
       <c r="B10">
         <v>300</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>8</v>
       </c>
       <c r="D10">
@@ -1626,7 +1613,7 @@
       <c r="E10">
         <v>3500</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>3</v>
       </c>
       <c r="G10">
@@ -1635,7 +1622,7 @@
       <c r="H10">
         <v>35</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>3</v>
       </c>
       <c r="J10">
@@ -1644,7 +1631,7 @@
       <c r="K10">
         <v>1000</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>3</v>
       </c>
       <c r="M10">
@@ -1658,37 +1645,37 @@
       <c r="B11">
         <v>350</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>40</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>4000</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>3.5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>11</v>
       </c>
       <c r="H11">
         <v>40</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>3.5</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>11</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>1100</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>3.5</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1699,7 +1686,7 @@
       <c r="B12">
         <v>400</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>10</v>
       </c>
       <c r="D12">
@@ -1708,7 +1695,7 @@
       <c r="E12">
         <v>4500</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>4</v>
       </c>
       <c r="G12">
@@ -1717,7 +1704,7 @@
       <c r="H12">
         <v>45</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>4</v>
       </c>
       <c r="J12">
@@ -1726,7 +1713,7 @@
       <c r="K12">
         <v>1200</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>4</v>
       </c>
       <c r="M12">
@@ -1740,37 +1727,37 @@
       <c r="B13">
         <v>450</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>50</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>5000</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>4.5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>13</v>
       </c>
       <c r="H13">
         <v>50</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>4.5</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>13</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>1300</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>4.5</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1781,7 +1768,7 @@
       <c r="B14">
         <v>500</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>12</v>
       </c>
       <c r="D14">
@@ -1790,7 +1777,7 @@
       <c r="E14">
         <v>5500</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>5</v>
       </c>
       <c r="G14">
@@ -1799,7 +1786,7 @@
       <c r="H14">
         <v>55</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>5</v>
       </c>
       <c r="J14">
@@ -1808,7 +1795,7 @@
       <c r="K14">
         <v>1400</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>5</v>
       </c>
       <c r="M14">
@@ -1816,10 +1803,10 @@
       </c>
     </row>
     <row r="15" spans="6:6">
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1849,59 +1836,59 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCarStarAttr.xlsx
+++ b/docs/excel/TCarStarAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarStarAttr" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -211,12 +211,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -226,6 +241,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,12 +286,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -261,8 +330,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,91 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -376,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,16 +571,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +600,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -615,20 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,168 +667,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1319,7 +1319,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -1337,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17">
